--- a/server/src/output/demoVreemdeValuta.xlsx
+++ b/server/src/output/demoVreemdeValuta.xlsx
@@ -35703,7 +35703,7 @@
         <v>24.05</v>
       </c>
       <c r="M25" s="24">
-        <v>1489383.7808333335</v>
+        <v>1486287.348856549</v>
       </c>
       <c r="N25" s="25"/>
       <c r="O25" s="26"/>
@@ -35755,7 +35755,7 @@
         <v>4.42</v>
       </c>
       <c r="M26" s="24">
-        <v>770876.5</v>
+        <v>697625.7918552037</v>
       </c>
       <c r="N26" s="25"/>
       <c r="O26" s="26"/>
@@ -35908,10 +35908,10 @@
         <v>1526850</v>
       </c>
       <c r="L29" s="24">
-        <v>4.42</v>
+        <v>4.407</v>
       </c>
       <c r="M29" s="24">
-        <v>381712.5</v>
+        <v>346460.1769911504</v>
       </c>
       <c r="N29" s="25"/>
       <c r="O29" s="26"/>
@@ -36541,7 +36541,7 @@
         <v>1.1255</v>
       </c>
       <c r="M45" s="24">
-        <v>137628.8</v>
+        <v>122282.36339404709</v>
       </c>
       <c r="N45" s="25"/>
       <c r="O45" s="44"/>
